--- a/2021/上机/CS006001-38上机记录.xlsx
+++ b/2021/上机/CS006001-38上机记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repository\C-Program\2021\上机\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13145E29-7A44-4033-9FF9-2481F5D31B5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD83DF2-1745-4E0A-B8A9-0E6732D686CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="176">
   <si>
     <t>学号</t>
   </si>
@@ -533,6 +533,44 @@
   </si>
   <si>
     <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至10.24日580</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至10.24日500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至20.24日380
+29日580</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至10.24日580
+29日不变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.29日580</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.29日680</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.29日555</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.29--19:20</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -615,7 +653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -630,6 +668,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE282B9-2B8E-4EC9-90D5-A29D8CB99414}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
@@ -982,40 +1023,40 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="22.65" customHeight="1">
       <c r="A5" s="1">
@@ -1196,7 +1237,9 @@
         <v>164</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="22.65" customHeight="1">
@@ -1411,7 +1454,9 @@
         <v>5</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
@@ -1503,7 +1548,9 @@
         <v>5</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
@@ -1543,7 +1590,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="22.65" customHeight="1">
+    <row r="34" spans="1:8" ht="37.799999999999997" customHeight="1">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -1557,7 +1604,9 @@
         <v>5</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
@@ -1649,7 +1698,9 @@
       <c r="E39" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
@@ -1779,7 +1830,9 @@
         <v>5</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="F46" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
@@ -1945,7 +1998,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="22.65" customHeight="1">
+    <row r="56" spans="1:8" ht="39" customHeight="1">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -1961,7 +2014,9 @@
       <c r="E56" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
@@ -1998,7 +2053,9 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="G58" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8" ht="22.65" customHeight="1">
@@ -2124,7 +2181,9 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
+      <c r="G65" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" ht="22.65" customHeight="1">
@@ -2379,8 +2438,19 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:8" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="80" spans="1:8" ht="14.25" customHeight="1">
+      <c r="F80" t="s">
+        <v>169</v>
+      </c>
+      <c r="G80">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7" ht="14.25" customHeight="1">
+      <c r="G81" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:H2"/>
@@ -2438,40 +2508,40 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="22.65" customHeight="1">
       <c r="A5" s="1">

--- a/2021/上机/CS006001-38上机记录.xlsx
+++ b/2021/上机/CS006001-38上机记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repository\C-Program\2021\上机\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD83DF2-1745-4E0A-B8A9-0E6732D686CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F6DAC0-A650-49C0-B62B-90139126A7DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="188">
   <si>
     <t>学号</t>
   </si>
@@ -548,16 +548,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>至20.24日380
-29日580</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>至10.24日580
-29日不变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10.29日580</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -571,6 +561,66 @@
   </si>
   <si>
     <t>10.29--19:20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至10.24日580
+29日不变
+11.5不变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至20.24日380
+29日580
+11.5不变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5日650</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5日660</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5日600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5日560</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5日440</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5日410</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5日380</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5日360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5日300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5日200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5日100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5--10:50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -986,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE282B9-2B8E-4EC9-90D5-A29D8CB99414}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U77" sqref="U77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
@@ -997,7 +1047,8 @@
     <col min="2" max="2" width="11.21875" customWidth="1"/>
     <col min="3" max="3" width="9.77734375" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="8" width="9.77734375" customWidth="1"/>
+    <col min="5" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
@@ -1238,9 +1289,11 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H14" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="22.65" customHeight="1">
       <c r="A15" s="1">
@@ -1384,7 +1437,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="22.65" customHeight="1">
       <c r="A23" s="1">
@@ -1495,8 +1550,12 @@
         <v>164</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="22.65" customHeight="1">
       <c r="A29" s="1">
@@ -1514,7 +1573,9 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="22.65" customHeight="1">
       <c r="A30" s="1">
@@ -1590,7 +1651,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="37.799999999999997" customHeight="1">
+    <row r="34" spans="1:8" ht="51" customHeight="1">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -1605,10 +1666,14 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="22.65" customHeight="1">
       <c r="A35" s="1">
@@ -1852,7 +1917,9 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="22.65" customHeight="1">
       <c r="A48" s="1">
@@ -1960,7 +2027,9 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="22.65" customHeight="1">
       <c r="A54" s="1">
@@ -1978,7 +2047,9 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="22.65" customHeight="1">
       <c r="A55" s="1">
@@ -1998,7 +2069,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="39" customHeight="1">
+    <row r="56" spans="1:8" ht="55.8" customHeight="1">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -2015,10 +2086,12 @@
         <v>164</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="22.65" customHeight="1">
       <c r="A57" s="1">
@@ -2054,7 +2127,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H58" s="2"/>
     </row>
@@ -2182,7 +2255,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H65" s="2"/>
     </row>
@@ -2256,7 +2329,9 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="H69" s="2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="70" spans="1:8" ht="22.65" customHeight="1">
       <c r="A70" s="1">
@@ -2448,7 +2523,12 @@
     </row>
     <row r="81" spans="7:7" ht="14.25" customHeight="1">
       <c r="G81" t="s">
-        <v>175</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="7:7">
+      <c r="G82" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2473,8 +2553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
@@ -2718,9 +2798,7 @@
       <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2972,9 +3050,7 @@
       <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -3172,9 +3248,7 @@
       <c r="D39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -3228,9 +3302,7 @@
       <c r="D42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -3284,9 +3356,7 @@
       <c r="D45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -3484,9 +3554,7 @@
       <c r="D56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>

--- a/2021/上机/CS006001-38上机记录.xlsx
+++ b/2021/上机/CS006001-38上机记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repository\C-Program\2021\上机\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F6DAC0-A650-49C0-B62B-90139126A7DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A816777F-F87A-46E6-B137-4F8831B71CF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="第1-4次" sheetId="2" r:id="rId1"/>
     <sheet name="第5-6次" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="189">
   <si>
     <t>学号</t>
   </si>
@@ -621,6 +621,10 @@
   </si>
   <si>
     <t>11.5--10:50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照顾未减</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +671,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -697,13 +701,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,6 +733,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1036,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE282B9-2B8E-4EC9-90D5-A29D8CB99414}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U77" sqref="U77"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
@@ -1051,7 +1067,7 @@
     <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>155</v>
       </c>
@@ -1063,7 +1079,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1">
+    <row r="2" spans="1:10" ht="14.25" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1073,7 +1089,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1">
+    <row r="3" spans="1:10" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>166</v>
       </c>
@@ -1099,7 +1115,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1">
+    <row r="4" spans="1:10" ht="14.25" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1109,7 +1125,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="22.65" customHeight="1">
+    <row r="5" spans="1:10" ht="22.65" customHeight="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1127,7 +1143,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="22.65" customHeight="1">
+    <row r="6" spans="1:10" ht="22.65" customHeight="1">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1145,7 +1161,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="22.65" customHeight="1">
+    <row r="7" spans="1:10" ht="22.65" customHeight="1">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1163,7 +1179,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="22.65" customHeight="1">
+    <row r="8" spans="1:10" ht="22.65" customHeight="1">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1181,7 +1197,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="22.65" customHeight="1">
+    <row r="9" spans="1:10" ht="22.65" customHeight="1">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1199,7 +1215,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="22.65" customHeight="1">
+    <row r="10" spans="1:10" ht="22.65" customHeight="1">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1217,7 +1233,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="22.65" customHeight="1">
+    <row r="11" spans="1:10" ht="22.65" customHeight="1">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1235,7 +1251,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="22.65" customHeight="1">
+    <row r="12" spans="1:10" ht="22.65" customHeight="1">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1253,7 +1269,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="22.65" customHeight="1">
+    <row r="13" spans="1:10" ht="22.65" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1271,7 +1287,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="22.65" customHeight="1">
+    <row r="14" spans="1:10" ht="22.65" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1294,8 +1310,14 @@
       <c r="H14" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I14">
+        <v>-30</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="22.65" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1313,7 +1335,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="22.65" customHeight="1">
+    <row r="16" spans="1:10" ht="22.65" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1331,7 +1353,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="22.65" customHeight="1">
+    <row r="17" spans="1:9" ht="22.65" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1349,7 +1371,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="22.65" customHeight="1">
+    <row r="18" spans="1:9" ht="22.65" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1367,7 +1389,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="22.65" customHeight="1">
+    <row r="19" spans="1:9" ht="22.65" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1385,7 +1407,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="22.65" customHeight="1">
+    <row r="20" spans="1:9" ht="22.65" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1403,7 +1425,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="22.65" customHeight="1">
+    <row r="21" spans="1:9" ht="22.65" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1421,7 +1443,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="22.65" customHeight="1">
+    <row r="22" spans="1:9" ht="22.65" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1440,8 +1462,11 @@
       <c r="H22" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I22">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="22.65" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1459,7 +1484,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="22.65" customHeight="1">
+    <row r="24" spans="1:9" ht="22.65" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1477,7 +1502,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="22.65" customHeight="1">
+    <row r="25" spans="1:9" ht="22.65" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1495,7 +1520,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="22.65" customHeight="1">
+    <row r="26" spans="1:9" ht="22.65" customHeight="1">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1514,8 +1539,11 @@
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I26">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="22.65" customHeight="1">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1533,7 +1561,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="22.65" customHeight="1">
+    <row r="28" spans="1:9" ht="22.65" customHeight="1">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1556,8 +1584,11 @@
       <c r="H28" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I28">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="22.65" customHeight="1">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1576,8 +1607,11 @@
       <c r="H29" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I29">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="22.65" customHeight="1">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -1595,7 +1629,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="22.65" customHeight="1">
+    <row r="31" spans="1:9" ht="22.65" customHeight="1">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1614,8 +1648,11 @@
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I31">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="22.65" customHeight="1">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -1633,7 +1670,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="22.65" customHeight="1">
+    <row r="33" spans="1:9" ht="22.65" customHeight="1">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -1651,7 +1688,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="51" customHeight="1">
+    <row r="34" spans="1:9" ht="51" customHeight="1">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -1674,8 +1711,11 @@
       <c r="H34" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I34">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="22.65" customHeight="1">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -1693,7 +1733,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" ht="22.65" customHeight="1">
+    <row r="36" spans="1:9" ht="22.65" customHeight="1">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -1711,7 +1751,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" ht="22.65" customHeight="1">
+    <row r="37" spans="1:9" ht="22.65" customHeight="1">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -1729,7 +1769,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" ht="22.65" customHeight="1">
+    <row r="38" spans="1:9" ht="22.65" customHeight="1">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -1747,7 +1787,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="22.65" customHeight="1">
+    <row r="39" spans="1:9" ht="22.65" customHeight="1">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -1768,8 +1808,11 @@
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I39">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="22.65" customHeight="1">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -1787,7 +1830,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" ht="22.65" customHeight="1">
+    <row r="41" spans="1:9" ht="22.65" customHeight="1">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -1805,7 +1848,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" ht="22.65" customHeight="1">
+    <row r="42" spans="1:9" ht="22.65" customHeight="1">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -1824,8 +1867,11 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I42">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="22.65" customHeight="1">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -1843,7 +1889,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" ht="22.65" customHeight="1">
+    <row r="44" spans="1:9" ht="22.65" customHeight="1">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -1861,7 +1907,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" ht="22.65" customHeight="1">
+    <row r="45" spans="1:9" ht="22.65" customHeight="1">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -1881,7 +1927,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" ht="22.65" customHeight="1">
+    <row r="46" spans="1:9" ht="22.65" customHeight="1">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -1900,8 +1946,11 @@
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I46">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="22.65" customHeight="1">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -1920,8 +1969,11 @@
       <c r="H47" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I47">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="22.65" customHeight="1">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -1939,7 +1991,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" ht="22.65" customHeight="1">
+    <row r="49" spans="1:9" ht="22.65" customHeight="1">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -1957,7 +2009,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" ht="22.65" customHeight="1">
+    <row r="50" spans="1:9" ht="22.65" customHeight="1">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -1975,7 +2027,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" ht="22.65" customHeight="1">
+    <row r="51" spans="1:9" ht="22.65" customHeight="1">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -1993,7 +2045,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="22.65" customHeight="1">
+    <row r="52" spans="1:9" ht="22.65" customHeight="1">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -2011,7 +2063,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="22.65" customHeight="1">
+    <row r="53" spans="1:9" ht="22.65" customHeight="1">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -2030,8 +2082,11 @@
       <c r="H53" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I53">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="22.65" customHeight="1">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -2050,8 +2105,11 @@
       <c r="H54" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I54">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="22.65" customHeight="1">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -2069,7 +2127,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="55.8" customHeight="1">
+    <row r="56" spans="1:9" ht="55.8" customHeight="1">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -2092,8 +2150,11 @@
       <c r="H56" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I56">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="22.65" customHeight="1">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -2111,7 +2172,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" ht="22.65" customHeight="1">
+    <row r="58" spans="1:9" ht="22.65" customHeight="1">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -2130,8 +2191,11 @@
         <v>172</v>
       </c>
       <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I58">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="22.65" customHeight="1">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -2149,7 +2213,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="22.65" customHeight="1">
+    <row r="60" spans="1:9" ht="22.65" customHeight="1">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -2167,7 +2231,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="22.65" customHeight="1">
+    <row r="61" spans="1:9" ht="22.65" customHeight="1">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -2185,7 +2249,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" ht="22.65" customHeight="1">
+    <row r="62" spans="1:9" ht="22.65" customHeight="1">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -2203,7 +2267,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="22.65" customHeight="1">
+    <row r="63" spans="1:9" ht="22.65" customHeight="1">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -2221,7 +2285,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="22.65" customHeight="1">
+    <row r="64" spans="1:9" ht="22.65" customHeight="1">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -2239,7 +2303,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" ht="22.65" customHeight="1">
+    <row r="65" spans="1:9" ht="22.65" customHeight="1">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -2258,8 +2322,11 @@
         <v>171</v>
       </c>
       <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I65">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="22.65" customHeight="1">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -2277,7 +2344,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" ht="22.65" customHeight="1">
+    <row r="67" spans="1:9" ht="22.65" customHeight="1">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -2295,7 +2362,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" ht="22.65" customHeight="1">
+    <row r="68" spans="1:9" ht="22.65" customHeight="1">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -2313,7 +2380,7 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" ht="22.65" customHeight="1">
+    <row r="69" spans="1:9" ht="22.65" customHeight="1">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -2332,8 +2399,11 @@
       <c r="H69" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I69">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="22.65" customHeight="1">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -2351,7 +2421,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8" ht="22.65" customHeight="1">
+    <row r="71" spans="1:9" ht="22.65" customHeight="1">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -2369,7 +2439,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8" ht="22.65" customHeight="1">
+    <row r="72" spans="1:9" ht="22.65" customHeight="1">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -2387,7 +2457,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" ht="22.65" customHeight="1">
+    <row r="73" spans="1:9" ht="22.65" customHeight="1">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -2405,7 +2475,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" ht="22.65" customHeight="1">
+    <row r="74" spans="1:9" ht="22.65" customHeight="1">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -2423,7 +2493,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" ht="22.65" customHeight="1">
+    <row r="75" spans="1:9" ht="22.65" customHeight="1">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -2441,7 +2511,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="22.65" customHeight="1">
+    <row r="76" spans="1:9" ht="22.65" customHeight="1">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -2459,7 +2529,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" ht="22.65" customHeight="1">
+    <row r="77" spans="1:9" ht="22.65" customHeight="1">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -2477,7 +2547,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" ht="22.65" customHeight="1">
+    <row r="78" spans="1:9" ht="22.65" customHeight="1">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -2495,7 +2565,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8" ht="22.65" customHeight="1">
+    <row r="79" spans="1:9" ht="22.65" customHeight="1">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -2513,7 +2583,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:8" ht="14.25" customHeight="1">
+    <row r="80" spans="1:9" ht="14.25" customHeight="1">
       <c r="F80" t="s">
         <v>169</v>
       </c>
@@ -2553,7 +2623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
